--- a/biology/Zoologie/Émeraude_de_New_Providence/Émeraude_de_New_Providence.xlsx
+++ b/biology/Zoologie/Émeraude_de_New_Providence/Émeraude_de_New_Providence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89meraude_de_New_Providence</t>
+          <t>Émeraude_de_New_Providence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorostilbon bracei
-L’Émeraude de New Providence est une espèce éteinte d'oiseaux-mouches (Trochilidae) des Bahamas, connue à partir du seul spécimen type décrit par George Newbold Lawrence (1806-1895), récolté en 1877[1]. Le nom scientifique de l'oiseau, Chlorostilbon bracei, commémore le botaniste australien Lewis Jones Knight Brace (1852-1938), récolteur de l'espèce.
-Il est fort probable que l'espèce ait disparu peu après 1877[1]. Un ornithologue présent quatre mois en 1859 dans la région où le spécimen a ensuite été trouvé n'avait pas rencontré cette espèce, signe que sa population était certainement déjà sur le déclin[1]. Les causes de sa disparition sont inconnues[1].
+L’Émeraude de New Providence est une espèce éteinte d'oiseaux-mouches (Trochilidae) des Bahamas, connue à partir du seul spécimen type décrit par George Newbold Lawrence (1806-1895), récolté en 1877. Le nom scientifique de l'oiseau, Chlorostilbon bracei, commémore le botaniste australien Lewis Jones Knight Brace (1852-1938), récolteur de l'espèce.
+Il est fort probable que l'espèce ait disparu peu après 1877. Un ornithologue présent quatre mois en 1859 dans la région où le spécimen a ensuite été trouvé n'avait pas rencontré cette espèce, signe que sa population était certainement déjà sur le déclin. Les causes de sa disparition sont inconnues.
 </t>
         </is>
       </c>
